--- a/xlsx/sol.xlsx
+++ b/xlsx/sol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -365,7 +365,7 @@
     <t>Powershell</t>
   </si>
   <si>
-    <t>CI/CD Proccess</t>
+    <t>CI/CD Proccess ():</t>
   </si>
   <si>
     <t>CPXxz_ISOKLF317-wNIe-40</t>
@@ -1264,426 +1264,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
       <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
         <v>108</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
       <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>113</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
       <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>118</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
       <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>122</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>93</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>125</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>126</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>127</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
       <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>108</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
       <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
         <v>129</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>130</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>131</v>
       </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
       <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
       <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>136</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>137</v>
       </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
       <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>138</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
       <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>141</v>
       </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
       <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>140</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>142</v>
       </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
       <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>140</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
       <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>140</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>99</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>144</v>
       </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>140</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>99</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>39</v>
       </c>
     </row>
